--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st02.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st02.xlsx
@@ -48,7 +48,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">At Rhodes Island, Flamebringer will meet another old friend…
+    <t xml:space="preserve">At Rhodes Island, Flamebringer will meet another old friend...
 </t>
   </si>
   <si>
